--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F77A09-8D95-46D2-89EE-E285F8CE1E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{323630FF-4D61-4EF7-AC99-D0B4615CA661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323630FF-4D61-4EF7-AC99-D0B4615CA661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDEBE53-F27B-4D6E-919B-77A0DC4A02EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,10 +428,10 @@
     <col min="3" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +459,12 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43780</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -486,6 +491,10 @@
       </c>
       <c r="I2" s="1">
         <v>43878</v>
+      </c>
+      <c r="J2" s="2">
+        <f ca="1">TODAY()</f>
+        <v>43780</v>
       </c>
     </row>
   </sheetData>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22313"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDEBE53-F27B-4D6E-919B-77A0DC4A02EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36a9\AC\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B691792-A84E-4565-97C5-331E729D72CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Last</t>
   </si>
@@ -31,6 +36,9 @@
     <t>First</t>
   </si>
   <si>
+    <t>Area of Disability</t>
+  </si>
+  <si>
     <t>IEP</t>
   </si>
   <si>
@@ -43,9 +51,6 @@
     <t>Reeval</t>
   </si>
   <si>
-    <t>Area of Disability</t>
-  </si>
-  <si>
     <t>30 test</t>
   </si>
   <si>
@@ -59,15 +64,21 @@
   </si>
   <si>
     <t>Sensory Impairment</t>
+  </si>
+  <si>
+    <t>La'Practece</t>
+  </si>
+  <si>
+    <t>Examie</t>
+  </si>
+  <si>
+    <t>Educational Impairment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -99,8 +110,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,30 +426,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -450,7 +460,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -459,32 +469,32 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <f ca="1">TODAY()</f>
-        <v>43780</v>
+        <v>43785</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
         <v>43972</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>44093</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>43840</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>43876</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>43831</v>
@@ -492,9 +502,42 @@
       <c r="I2" s="1">
         <v>43878</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43780</v>
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43800</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43892</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44448</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43831</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43831</v>
+      </c>
+      <c r="J3" s="1">
+        <f ca="1">TODAY()</f>
+        <v>43785</v>
       </c>
     </row>
   </sheetData>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36a9\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B691792-A84E-4565-97C5-331E729D72CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71481A8E-85B8-45CA-BC3D-DEED0935A1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +437,10 @@
     <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>43972</v>
+        <v>43819</v>
       </c>
       <c r="E2" s="1">
         <v>44093</v>
@@ -497,10 +500,10 @@
         <v>43876</v>
       </c>
       <c r="H2" s="1">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="I2" s="1">
-        <v>43878</v>
+        <v>43513</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">TODAY()</f>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_36a9\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shane\Documents\Education\COMP 426\COMP442 Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71481A8E-85B8-45CA-BC3D-DEED0935A1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D633D0-1ED2-472B-A395-38D142A9F7BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,22 +429,22 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,10 +474,10 @@
       </c>
       <c r="J1" s="1">
         <f ca="1">TODAY()</f>
-        <v>43785</v>
+        <v>43793</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -507,10 +507,10 @@
       </c>
       <c r="J2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43785</v>
+        <v>43793</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -540,7 +540,7 @@
       </c>
       <c r="J3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43785</v>
+        <v>43793</v>
       </c>
     </row>
   </sheetData>
